--- a/Ageipelago Genghis Khan.xlsx
+++ b/Ageipelago Genghis Khan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/BB6DD295C338E39F/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36B768C8-52B4-40AF-A7C8-D3CFEFD0AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{36B768C8-52B4-40AF-A7C8-D3CFEFD0AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431BC05F-6B1D-4A6A-B318-5B28BCA61ECE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A331DE4D-6B47-4A46-A574-F0C6C77C75AD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A331DE4D-6B47-4A46-A574-F0C6C77C75AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>Scenario</t>
   </si>
@@ -85,322 +85,6 @@
   </si>
   <si>
     <t>Technology: Chemistry</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bring 1 Relic to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ungirrad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Monestary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Bring 20 Sheep to the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kereyids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Kill Ornlu the Wolf
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Naiman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tayichi'uds</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bring 2/3 Relic/s to </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>the Ungirrad Monestary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ungirrad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kereyids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF30F2FC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Uighurs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Defeat the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kara-Khitai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>4 Light Cavalry, 4 Cavalry Archers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Genghis Khan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-5 Cavalry Archers (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Naiman</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-6 Cavalry Archers, 2 Monks (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kereyids</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-4 Mangudai (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ungirrad</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-5 Camel Riders (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF30F2FC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Uighurs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)
-5 Light Cavalry (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tayichi'uds</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1465,12 +1149,1864 @@
     <t>One more Speedrun Achievement, once more, not a Fan.
 Maybe keeping the Bridge from being destroyed would be a good Item? Not much to work with here for a final Scenario…</t>
   </si>
+  <si>
+    <t>Army Player 2</t>
+  </si>
+  <si>
+    <t>Army Player 3</t>
+  </si>
+  <si>
+    <t>Army Player 4</t>
+  </si>
+  <si>
+    <t>Army Player 5</t>
+  </si>
+  <si>
+    <t>Army Player 6</t>
+  </si>
+  <si>
+    <t>Army Player 7</t>
+  </si>
+  <si>
+    <t>Army Player 8</t>
+  </si>
+  <si>
+    <t>Logic</t>
+  </si>
+  <si>
+    <t>4 Cavalry Archers
+6 Camel Riders</t>
+  </si>
+  <si>
+    <t>6 Cavalry Archers</t>
+  </si>
+  <si>
+    <t>5 Mangudai
+2 Monks</t>
+  </si>
+  <si>
+    <t>8 Cavalry Archers
+2 Monks</t>
+  </si>
+  <si>
+    <t>6 Light Cavalry</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+23 Cavalry Archers
+4 Rocket Carts
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+23 Cavalry Archers
+1 Rocket Cart
+2 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+25 Cavalry Archers
+4 Rocket Carts
+2 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 Light Cavalry, 4 Cavalry Archers (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Genghis Khan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+5 Cavalry Archers (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Naiman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+6 Cavalry Archers, 2 Monks (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kereyids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+4 Mangudai (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ungirrad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+5 Camel Riders (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF30F2FC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uighurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)
+5 Light Cavalry (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tayichi'uds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring 2/3 Relic/s to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Ungirrad Monestary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ungirrad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kereyids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF30F2FC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uighurs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kara-Khitai</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bring 1 Relic to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>the Ungirrad Monestary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Bring 20 Sheep to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kereyids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Kill Ornlu the Wolf
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Naiman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tayichi'uds</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bringing Sheep to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kereyids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is possible from the Beginning.
+Bringing Relics to the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ungirrads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kereyids'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Units and any 1 additional Group of Units.
+Defeating any Enemies except the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kara-Khitai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and killing Ornlu requires any 2 Groups of Units. Defeating the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kara-Khitai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires any 3 Groups of Units.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Cavalry Archers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+26 Cavalry Archers
+8 Skirmishers
+10 Scorpions
+1 Kushluk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+16 Long Swordsmen
+8 Light Cavalry
+5 Elite Skirmishers
+16 Cavalry Archers
+8 Mangudai
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+16 Long Swordsmen
+8 Light Cavalry
+5 Elite Skirmishers
+16 Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+16 Long Swordsmen
+8 Light Cavalry
+5 Elite Skirmishers
+16 Cavalry Archers
+12 Mangudai</t>
+    </r>
+  </si>
+  <si>
+    <t>Starting Units:
+10 Cavalry Archers
+9 Light Cavalry
+6 Archers
+Later:
+16 Long Swordsmen
+8 Light Cavalry
+12 Crossbowmen
+12 Elite Skirmishers
+16 Cavalry Archers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Killing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kushluk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tayichi'uds
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is possible from the Beginning.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kushluk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kara-Khitai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> requires the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tayichi'uds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' Base.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Player requires Docks and Transport Ships to be unlocked to defeat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or destroy their Castles and Wonder.
+The Player requires the Gaia Transport Ship to be able to defeat the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Engineers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and reach their </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Siege Workshop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+The Player requires Villagers to defeat any enemies besides the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Engineers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Militia
+6 Crossbowmen</t>
+  </si>
+  <si>
+    <t>10 Champions
+4 Elite Fire Lancers
+14 Arbalesters
+10 Elite Skirmishers
+2 Scouts
+2 Rocket Carts
+2 Monks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Light Cavalry
+14 Elite Chu-Ko-Nu
+5 Heavy Scorpions
+2 Trebuchets
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10 Light Cavalry
+14 Elite Chu-Ko-Nu
+7 Heavy Scorpions
+2 Trebuchets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Steppe Lancers
+(Castle Age)
+3 Steppe Lancers
+(Imperial Age)
+12 Elite Iron Pagodas
+(Imperial Age)
+3 Rocket Carts
+10 Grenadiers
+1 Monk
+8 Galleons
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Identical to Moderate
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6 Steppe Lancers
+(Castle Age)
+3 Steppe Lancers
+(Imperial Age)
+12 Elite Iron Pagodas
+(Imperial Age)
+5 Heavy Rocket Carts
+10 Grenadiers
+1 Monk
+8 Galleons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16 Crossbowmen
+5 Elite Fire Lancers
+2 Scouts
+5 Siege Rams
+5 Heavy Rocket Carts
+1 Mounted Trebuchet
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Standard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">16 Crossbowmen
+2 Fire Lancers
+2 Scouts
+5 Siege Rams
+4 Heavy Rocket Carts
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hard:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16 Crossbowmen
+8 Elite Fire Lancers
+2 Scouts
+5 Siege Rams
+5 Heavy Rocket Carts
+2 Mounted Trebuchets
+1 Monk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+2 Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+3 Skirmishers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+2 Skirmishers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+4 Skirmishers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+2 Light Cavalry
+4 Knights
+4 Boyars
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+30 Long Swordsmen
+6 Knights
+3 Boyars
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+30 Long Swordsmen
+6 Knights
+8 Boyars
+4 Battering Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+30 Long Swordsmen
+6 Knights
+8 Boyars
+4 Battering Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+2 Light Cavalry
+3 Knights
+3 Camel Riders
+8 War Elephants
+4 Crossbowmen
+10 Heavy Cavalry Archers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+8 Savars
+2 Light Cavalry
+8 Elite War Elephants
+8 Heavy Cavalry Archers
+1 Trebuchet
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+8 Savars
+2 Light Cavalry
+8 Elite War Elephants
+8 Heavy Cavalry Archers
+1 Scorpion
+1 Monk
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+11 Savars
+2 Light Cavalry
+11 Elite War Elephants
+10 Heavy Cavalry Archers
+3 Scorpion
+2 Trebuchets
+2 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Kipchaks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be done with only the starting Units of the northern Base.
+Defeating </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Russians</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khwarazm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, destroying Castles and the Wonder and killing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the Shah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be done with either starting Base.
+Reaching</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the Shah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with Trade Carts requires both the Trade Carts and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Khwarazm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to be allied at the Beginning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+26 Champions
+20 Paladins
+10 Siege Onagers
+4 Siege Rams
+3 Trebuchets
+3 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+26 Champions
+20 Paladins
+10 Siege Onagers
+4 Siege Rams
+3 Trebuchets
+3 Monks
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+26 Champions
+24 Paladins
+14 Siege Onagers
+9 Siege Rams
+3 Trebuchets
+3 Monks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Starting Units:
+7 Knights
+2 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Champions
+8 Cavalier
+4 Onagers
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9 Champions
+6 Cavalier
+2 Mangonels
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16 Champions
+11 Cavalier
+6 Onagers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9 Halberdiers
+8 Elite Teutonic Knights
+12 Crossbowmen
+5 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7 Halberdiers
+5 Elite Teutonic Knights
+8 Crossbowmen
+5 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12 Halberdiers
+10 Elite Teutonic Knights
+15 Crossbowmen
+5 Capped Rams</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The Player needs to have Monasteries and Monks unlocked, or have optained the Gaia Units on the Map to collect the Relic.
+The Player needs to have Castles unlocked to build the 3 Castles in the flagged Area.
+The</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Polish Flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>German Flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be reached without needing to fight the respective Enemies.
+The Monastery in the Mountains can be reached from the Beginning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Staring Units:
+6 Crossbowmen
+2 Light Cavalry
+8 Cavalier
+12 Magyar Huszars
+9 Heavy Scorpions
+2 Capped Rams
+1 Trebuchet
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Moderate:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+10 Paladins
+9 Elite Magyar Huszars
+15 Elite Skirmishers
+8 Hussars
+4 Heavy Scorpions
+3 Trebuchets
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Standard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+10 Paladins
+9 Elite Magyar Huszars
+15 Elite Skirmishers
+8 Hussars
+2 Heavy Scorpions
+3 Trebuchets
+4 Capped Rams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hard:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Later:
+10 Paladins
+9 Elite Magyar Huszars
+15 Elite Skirmishers
+8 Hussars
+5 Heavy Scorpions
+3 Trebuchets
+4 Capped Rams</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1563,12 +3099,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF30F2FC"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1585,6 +3115,47 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2044,10 +3615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201339A3-381C-4D75-AA9C-6393DE91A57D}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="G9" workbookViewId="0">
+      <selection activeCell="N13" sqref="N9:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,10 +3631,18 @@
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
     <col min="8" max="8" width="29.5703125" customWidth="1"/>
     <col min="9" max="9" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
+    <col min="17" max="17" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:17" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,8 +3667,32 @@
       <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2097,143 +3700,243 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>37</v>
+      <c r="J7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="169.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" ht="394.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="11"/>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
